--- a/output/CodeSystem-lifestyle-observation-cs.xlsx
+++ b/output/CodeSystem-lifestyle-observation-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,7 +138,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>42</t>
+    <t>49</t>
   </si>
   <si>
     <t>Level</t>
@@ -453,6 +453,15 @@
     <t>Comprehensive balance and stability assessment</t>
   </si>
   <si>
+    <t>balance-status</t>
+  </si>
+  <si>
+    <t>Balance status</t>
+  </si>
+  <si>
+    <t>Qualitative status of balance (normal, impaired, etc.)</t>
+  </si>
+  <si>
     <t>gait-assessment</t>
   </si>
   <si>
@@ -525,6 +534,24 @@
     <t>Status of ovulation as measured by consumer fertility tracking device</t>
   </si>
   <si>
+    <t>sleep-monitoring-device</t>
+  </si>
+  <si>
+    <t>Sleep monitoring device</t>
+  </si>
+  <si>
+    <t>Device for monitoring and tracking sleep patterns and sleep quality metrics</t>
+  </si>
+  <si>
+    <t>environmental-sensor</t>
+  </si>
+  <si>
+    <t>Environmental sensor device</t>
+  </si>
+  <si>
+    <t>Device for monitoring environmental conditions such as noise, temperature, humidity, and UV exposure</t>
+  </si>
+  <si>
     <t>body-composition-panel</t>
   </si>
   <si>
@@ -532,6 +559,42 @@
   </si>
   <si>
     <t>Panel for comprehensive body composition measurements from bioimpedance analysis</t>
+  </si>
+  <si>
+    <t>mindfulness-session</t>
+  </si>
+  <si>
+    <t>Mindfulness practice session</t>
+  </si>
+  <si>
+    <t>A session of mindfulness meditation or practice including breathing exercises, body scans, or mindful awareness</t>
+  </si>
+  <si>
+    <t>relaxation-response</t>
+  </si>
+  <si>
+    <t>Relaxation response observation</t>
+  </si>
+  <si>
+    <t>Subjective observation of the relaxation response experienced during or after mindfulness or relaxation practice</t>
+  </si>
+  <si>
+    <t>mindfulness-type</t>
+  </si>
+  <si>
+    <t>Type of mindfulness practice</t>
+  </si>
+  <si>
+    <t>The specific type or technique of mindfulness or meditation practice performed</t>
+  </si>
+  <si>
+    <t>water-intake</t>
+  </si>
+  <si>
+    <t>Water intake volume</t>
+  </si>
+  <si>
+    <t>Daily water consumption measured in liters or milliliters</t>
   </si>
 </sst>
 </file>
@@ -884,7 +947,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,6 +1555,104 @@
         <v>172</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/CodeSystem-lifestyle-observation-cs.xlsx
+++ b/output/CodeSystem-lifestyle-observation-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-lifestyle-observation-cs.xlsx
+++ b/output/CodeSystem-lifestyle-observation-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="209">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,7 +138,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>49</t>
+    <t>54</t>
   </si>
   <si>
     <t>Level</t>
@@ -595,6 +595,51 @@
   </si>
   <si>
     <t>Daily water consumption measured in liters or milliliters</t>
+  </si>
+  <si>
+    <t>walking-speed</t>
+  </si>
+  <si>
+    <t>Walking speed measurement</t>
+  </si>
+  <si>
+    <t>Measurement of walking speed during ambulation</t>
+  </si>
+  <si>
+    <t>walking-distance</t>
+  </si>
+  <si>
+    <t>Walking distance measurement</t>
+  </si>
+  <si>
+    <t>Measurement of total distance walked</t>
+  </si>
+  <si>
+    <t>walking-steadiness</t>
+  </si>
+  <si>
+    <t>Walking steadiness measurement</t>
+  </si>
+  <si>
+    <t>Measurement of walking balance and steadiness</t>
+  </si>
+  <si>
+    <t>heart-rate-exercise</t>
+  </si>
+  <si>
+    <t>Heart rate during exercise</t>
+  </si>
+  <si>
+    <t>Heart rate measurement during physical exercise activity</t>
+  </si>
+  <si>
+    <t>heart-rate-variability</t>
+  </si>
+  <si>
+    <t>Heart rate variability</t>
+  </si>
+  <si>
+    <t>Measurement of heart rate variability (HRV)</t>
   </si>
 </sst>
 </file>
@@ -947,7 +992,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1653,6 +1698,76 @@
         <v>193</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/CodeSystem-lifestyle-observation-cs.xlsx
+++ b/output/CodeSystem-lifestyle-observation-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-lifestyle-observation-cs.xlsx
+++ b/output/CodeSystem-lifestyle-observation-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-lifestyle-observation-cs.xlsx
+++ b/output/CodeSystem-lifestyle-observation-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="233">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,7 +138,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>54</t>
+    <t>62</t>
   </si>
   <si>
     <t>Level</t>
@@ -640,6 +640,78 @@
   </si>
   <si>
     <t>Measurement of heart rate variability (HRV)</t>
+  </si>
+  <si>
+    <t>alcohol-type</t>
+  </si>
+  <si>
+    <t>Type of alcoholic beverage</t>
+  </si>
+  <si>
+    <t>Type of alcoholic beverage consumed (beer, wine, spirits, etc.)</t>
+  </si>
+  <si>
+    <t>caffeine-source</t>
+  </si>
+  <si>
+    <t>Caffeine source</t>
+  </si>
+  <si>
+    <t>Source of dietary caffeine intake (coffee, tea, energy drinks, etc.)</t>
+  </si>
+  <si>
+    <t>last-caffeine-time</t>
+  </si>
+  <si>
+    <t>Time of last caffeine intake</t>
+  </si>
+  <si>
+    <t>Date and time of the most recent caffeine consumption</t>
+  </si>
+  <si>
+    <t>substance-frequency</t>
+  </si>
+  <si>
+    <t>Frequency of substance use</t>
+  </si>
+  <si>
+    <t>How often a substance is used (daily, weekly, monthly, etc.)</t>
+  </si>
+  <si>
+    <t>last-use-date</t>
+  </si>
+  <si>
+    <t>Date of last substance use</t>
+  </si>
+  <si>
+    <t>Date when a substance was last used</t>
+  </si>
+  <si>
+    <t>substance-use-summary</t>
+  </si>
+  <si>
+    <t>Substance use summary</t>
+  </si>
+  <si>
+    <t>Comprehensive summary of all substance use patterns for lifestyle medicine assessment</t>
+  </si>
+  <si>
+    <t>substance-risk-level</t>
+  </si>
+  <si>
+    <t>Overall substance use risk level</t>
+  </si>
+  <si>
+    <t>Aggregate risk assessment based on all substance use patterns</t>
+  </si>
+  <si>
+    <t>hrv-inflammation-correlation</t>
+  </si>
+  <si>
+    <t>HRV-Inflammation correlation assessment</t>
+  </si>
+  <si>
+    <t>Assessment of the correlation between heart rate variability metrics (especially RMSSD) and inflammatory biomarkers (CRP, IL-6). Based on RS1 systematic review finding: inverse correlation between vagal tone and systemic inflammation via cholinergic anti-inflammatory pathway (Tracey 2002).</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1768,6 +1840,118 @@
         <v>208</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/CodeSystem-lifestyle-observation-cs.xlsx
+++ b/output/CodeSystem-lifestyle-observation-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-lifestyle-observation-cs.xlsx
+++ b/output/CodeSystem-lifestyle-observation-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-lifestyle-observation-cs.xlsx
+++ b/output/CodeSystem-lifestyle-observation-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
